--- a/annotation/ups label images.xlsx
+++ b/annotation/ups label images.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lujiang/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4D3A90-74AB-3D4E-A138-FAECB634163F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29B3C22-11D5-5640-9DAF-750008849DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="500" windowWidth="24160" windowHeight="17680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="900" yWindow="500" windowWidth="16100" windowHeight="14840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$59</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="93">
   <si>
     <t>Filename</t>
   </si>
@@ -34,178 +37,181 @@
     <t>maxicode</t>
   </si>
   <si>
-    <t>IMG_8745_01.jpg</t>
-  </si>
-  <si>
-    <t>IMG_8745_02.jpg</t>
-  </si>
-  <si>
-    <t>IMG_8745_03.jpg</t>
-  </si>
-  <si>
-    <t>IMG_8745_04.jpg</t>
-  </si>
-  <si>
-    <t>IMG_8745_05.jpg</t>
-  </si>
-  <si>
-    <t>IMG_8745_06.jpg</t>
-  </si>
-  <si>
-    <t>IMG_8752_01.jpg</t>
-  </si>
-  <si>
-    <t>IMG_8752_02.jpg</t>
-  </si>
-  <si>
-    <t>IMG_8752_03.jpg</t>
-  </si>
-  <si>
-    <t>IMG_8752_04.jpg</t>
-  </si>
-  <si>
-    <t>IMG_8752_05.jpg</t>
-  </si>
-  <si>
-    <t>IMG_8752_06.jpg</t>
-  </si>
-  <si>
-    <t>IMG_8751_01.jpg</t>
-  </si>
-  <si>
-    <t>IMG_8751_02.jpg</t>
-  </si>
-  <si>
-    <t>IMG_8751_03.jpg</t>
-  </si>
-  <si>
-    <t>IMG_8751_04.jpg</t>
-  </si>
-  <si>
-    <t>IMG_8751_05.jpg</t>
-  </si>
-  <si>
-    <t>IMG_8757_01.jpg</t>
-  </si>
-  <si>
-    <t>IMG_8757_02.jpg</t>
-  </si>
-  <si>
-    <t>IMG_8757_03.jpg</t>
-  </si>
-  <si>
-    <t>IMG_8757_04.jpg</t>
-  </si>
-  <si>
-    <t>IMG_8757_05.jpg</t>
-  </si>
-  <si>
-    <t>IMG_8749_01.jpg</t>
-  </si>
-  <si>
-    <t>IMG_8749_02.jpg</t>
-  </si>
-  <si>
-    <t>IMG_8749_03.jpg</t>
-  </si>
-  <si>
-    <t>IMG_8749_04.jpg</t>
-  </si>
-  <si>
-    <t>IMG_8749_05.jpg</t>
-  </si>
-  <si>
-    <t>IMG_8743_01.jpg</t>
-  </si>
-  <si>
-    <t>IMG_8743_02.jpg</t>
-  </si>
-  <si>
-    <t>IMG_8743_03.jpg</t>
-  </si>
-  <si>
-    <t>IMG_8743_04.jpg</t>
-  </si>
-  <si>
-    <t>IMG_8743_05.jpg</t>
-  </si>
-  <si>
-    <t>IMG_8743_06.jpg</t>
-  </si>
-  <si>
-    <t>IMG_8743_07.jpg</t>
-  </si>
-  <si>
-    <t>IMG_8747_01.jpg</t>
-  </si>
-  <si>
-    <t>IMG_8747_02.jpg</t>
-  </si>
-  <si>
-    <t>IMG_8747_03.jpg</t>
-  </si>
-  <si>
-    <t>IMG_8747_04.jpg</t>
-  </si>
-  <si>
-    <t>IMG_8747_05.jpg</t>
-  </si>
-  <si>
-    <t>IMG_8747_06.jpg</t>
-  </si>
-  <si>
-    <t>IMG_8748_01.jpg</t>
-  </si>
-  <si>
-    <t>IMG_8748_02.jpg</t>
-  </si>
-  <si>
-    <t>IMG_8748_03.jpg</t>
-  </si>
-  <si>
-    <t>IMG_8748_04.jpg</t>
-  </si>
-  <si>
-    <t>IMG_8748_05.jpg</t>
-  </si>
-  <si>
-    <t>IMG_8748_06.jpg</t>
-  </si>
-  <si>
-    <t>IMG_8746_01.jpg</t>
-  </si>
-  <si>
-    <t>IMG_8746_02.jpg</t>
-  </si>
-  <si>
-    <t>IMG_8746_03.jpg</t>
-  </si>
-  <si>
-    <t>IMG_8746_04.jpg</t>
-  </si>
-  <si>
-    <t>IMG_8746_05.jpg</t>
-  </si>
-  <si>
-    <t>IMG_8746_06.jpg</t>
-  </si>
-  <si>
-    <t>IMG_8750_01.jpg</t>
-  </si>
-  <si>
-    <t>IMG_8750_02.jpg</t>
-  </si>
-  <si>
-    <t>IMG_8750_03.jpg</t>
-  </si>
-  <si>
-    <t>IMG_8750_04.jpg</t>
-  </si>
-  <si>
-    <t>IMG_8750_05.jpg</t>
-  </si>
-  <si>
-    <t>IMG_8750_06.jpg</t>
+    <t>BaseImage</t>
+  </si>
+  <si>
+    <t>IMG_8745</t>
+  </si>
+  <si>
+    <t>IMG_8760</t>
+  </si>
+  <si>
+    <t>IMG_9603</t>
+  </si>
+  <si>
+    <t>IMG_9604</t>
+  </si>
+  <si>
+    <t>IMG_9605</t>
+  </si>
+  <si>
+    <t>IMG_9606</t>
+  </si>
+  <si>
+    <t>IMG_8752</t>
+  </si>
+  <si>
+    <t>IMG_8758</t>
+  </si>
+  <si>
+    <t>IMG_9565</t>
+  </si>
+  <si>
+    <t>IMG_9566</t>
+  </si>
+  <si>
+    <t>IMG_9567</t>
+  </si>
+  <si>
+    <t>IMG_9568</t>
+  </si>
+  <si>
+    <t>IMG_8751</t>
+  </si>
+  <si>
+    <t>IMG_9583</t>
+  </si>
+  <si>
+    <t>IMG_9584</t>
+  </si>
+  <si>
+    <t>IMG_9585</t>
+  </si>
+  <si>
+    <t>IMG_9586</t>
+  </si>
+  <si>
+    <t>IMG_8757</t>
+  </si>
+  <si>
+    <t>IMG_9599</t>
+  </si>
+  <si>
+    <t>IMG_9600</t>
+  </si>
+  <si>
+    <t>IMG_9601</t>
+  </si>
+  <si>
+    <t>IMG_9602</t>
+  </si>
+  <si>
+    <t>IMG_8749</t>
+  </si>
+  <si>
+    <t>IMG_9573</t>
+  </si>
+  <si>
+    <t>IMG_9574</t>
+  </si>
+  <si>
+    <t>IMG_9575</t>
+  </si>
+  <si>
+    <t>IMG_9576</t>
+  </si>
+  <si>
+    <t>IMG_8743</t>
+  </si>
+  <si>
+    <t>IMG_8755</t>
+  </si>
+  <si>
+    <t>IMG_8759</t>
+  </si>
+  <si>
+    <t>IMG_9595</t>
+  </si>
+  <si>
+    <t>IMG_9596</t>
+  </si>
+  <si>
+    <t>IMG_9597</t>
+  </si>
+  <si>
+    <t>IMG_9598</t>
+  </si>
+  <si>
+    <t>IMG_8747</t>
+  </si>
+  <si>
+    <t>IMG_8763</t>
+  </si>
+  <si>
+    <t>IMG_9587</t>
+  </si>
+  <si>
+    <t>IMG_9588</t>
+  </si>
+  <si>
+    <t>IMG_9589</t>
+  </si>
+  <si>
+    <t>IMG_9590</t>
+  </si>
+  <si>
+    <t>IMG_8748</t>
+  </si>
+  <si>
+    <t>IMG_8764</t>
+  </si>
+  <si>
+    <t>IMG_9569</t>
+  </si>
+  <si>
+    <t>IMG_9570</t>
+  </si>
+  <si>
+    <t>IMG_9571</t>
+  </si>
+  <si>
+    <t>IMG_9572</t>
+  </si>
+  <si>
+    <t>IMG_8746</t>
+  </si>
+  <si>
+    <t>IMG_8762</t>
+  </si>
+  <si>
+    <t>IMG_9591</t>
+  </si>
+  <si>
+    <t>IMG_9592</t>
+  </si>
+  <si>
+    <t>IMG_9593</t>
+  </si>
+  <si>
+    <t>IMG_9594</t>
+  </si>
+  <si>
+    <t>IMG_8750</t>
+  </si>
+  <si>
+    <t>IMG_8754</t>
+  </si>
+  <si>
+    <t>IMG_9577</t>
+  </si>
+  <si>
+    <t>IMG_9578</t>
+  </si>
+  <si>
+    <t>IMG_9579</t>
+  </si>
+  <si>
+    <t>IMG_9582</t>
   </si>
   <si>
     <t>1Z33344N5051525354</t>
@@ -663,16 +669,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" customWidth="1"/>
+    <col min="1" max="1" width="30.1640625" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -685,108 +697,132 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>11</v>
       </c>
       <c r="B9" t="s">
         <v>63</v>
@@ -797,10 +833,13 @@
       <c r="D9" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
         <v>63</v>
@@ -811,10 +850,13 @@
       <c r="D10" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
         <v>63</v>
@@ -825,10 +867,13 @@
       <c r="D11" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
         <v>63</v>
@@ -839,10 +884,13 @@
       <c r="D12" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
         <v>63</v>
@@ -853,276 +901,336 @@
       <c r="D13" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="E19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D21" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+      <c r="E21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D22" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+      <c r="E22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+      <c r="E23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D24" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+      <c r="E24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>27</v>
-      </c>
-      <c r="B25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" t="s">
-        <v>76</v>
-      </c>
-      <c r="D26" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" t="s">
-        <v>76</v>
-      </c>
-      <c r="D28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" t="s">
-        <v>77</v>
-      </c>
-      <c r="D30" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" t="s">
-        <v>77</v>
-      </c>
-      <c r="D31" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" t="s">
-        <v>77</v>
-      </c>
-      <c r="D32" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>35</v>
       </c>
       <c r="B33" t="s">
         <v>67</v>
@@ -1133,10 +1241,13 @@
       <c r="D33" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B34" t="s">
         <v>67</v>
@@ -1147,10 +1258,13 @@
       <c r="D34" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B35" t="s">
         <v>67</v>
@@ -1161,344 +1275,423 @@
       <c r="D35" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D36" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="E36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D37" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="E37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C38" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D38" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="E38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B39" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C39" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D39" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="E39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B40" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C40" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D40" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="E40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="B41" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C41" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="E41" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="B42" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C42" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D42" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="E42" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B43" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C43" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D43" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="E43" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="B44" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C44" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D44" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="E44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="B45" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C45" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D45" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="E45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="B46" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C46" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D46" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="E46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="B47" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C47" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D47" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="E47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="B48" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C48" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D48" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="E48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C49" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D49" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="E49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C50" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D50" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="E50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C51" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D51" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="E51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="B52" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C52" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D52" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="E52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="B53" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C53" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D53" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="E53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="B54" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C54" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D54" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="E54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="B55" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C55" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D55" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="E55" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="B56" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C56" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D56" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="E56" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B57" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C57" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D57" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="E57" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="B58" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C58" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="E58" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="B59" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C59" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D59" t="s">
-        <v>91</v>
+        <v>86</v>
+      </c>
+      <c r="E59" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E59" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E59">
+    <sortCondition ref="E1:E59"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>